--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_41_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_41_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.792859039250046, 3.3412711313203625]</t>
+          <t>[2.790151172291146, 3.3439789982792623]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.540947811912465, -2.3396846188896965]</t>
+          <t>[-2.5283688623485427, -2.3522635684536186]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.08593694721499734, 0.20136191613326826]</t>
+          <t>[-0.08592210078798113, 0.20134706970625205]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.422666916728887</v>
+        <v>0.4226193145021786</v>
       </c>
       <c r="V2" t="n">
-        <v>0.422666916728887</v>
+        <v>0.4226193145021786</v>
       </c>
       <c r="W2" t="n">
         <v>8.828068068068234</v>
       </c>
       <c r="X2" t="n">
-        <v>8.464024024024186</v>
+        <v>8.509529529529688</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.192112112112282</v>
+        <v>9.146606606606779</v>
       </c>
     </row>
   </sheetData>
